--- a/Analyzed/try6/data_2005.xlsx
+++ b/Analyzed/try6/data_2005.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC9"/>
+  <dimension ref="A1:AD9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -503,6 +503,11 @@
           <t>CZcomb</t>
         </is>
       </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>XZcomb</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -547,13 +552,13 @@
         <v>51.36178472336334</v>
       </c>
       <c r="N2">
-        <v>221.76</v>
+        <v>443.52</v>
       </c>
       <c r="O2">
-        <v>830.41</v>
+        <v>-69.59</v>
       </c>
       <c r="P2">
-        <v>451.0739016000001</v>
+        <v>363.9098642201524</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -571,27 +576,30 @@
         <v>7</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X2">
         <v>1</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC2">
+        <v>2</v>
+      </c>
+      <c r="AD2">
         <v>2</v>
       </c>
     </row>
@@ -638,13 +646,13 @@
         <v>59.53551067562267</v>
       </c>
       <c r="N3">
-        <v>176.148</v>
+        <v>390.6</v>
       </c>
       <c r="O3">
-        <v>773.22</v>
+        <v>-76.78</v>
       </c>
       <c r="P3">
-        <v>532.7233704</v>
+        <v>457.2675245354187</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -662,19 +670,19 @@
         <v>3</v>
       </c>
       <c r="V3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X3">
         <v>1</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA3">
         <v>1</v>
@@ -684,6 +692,9 @@
       </c>
       <c r="AC3">
         <v>1</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -729,13 +740,13 @@
         <v>55.14917947647653</v>
       </c>
       <c r="N4">
-        <v>200.8440000000001</v>
+        <v>747.5440000000001</v>
       </c>
       <c r="O4">
-        <v>1212.95</v>
+        <v>-137.05</v>
       </c>
       <c r="P4">
-        <v>430.177608</v>
+        <v>342.4296100443095</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -753,28 +764,31 @@
         <v>4</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA4">
         <v>1</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC4">
         <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -820,13 +834,13 @@
         <v>62.79172867281459</v>
       </c>
       <c r="N5">
-        <v>94.77999999999999</v>
+        <v>339.248</v>
       </c>
       <c r="O5">
-        <v>794.66</v>
+        <v>-105.34</v>
       </c>
       <c r="P5">
-        <v>449.3969856</v>
+        <v>347.916536029558</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -844,10 +858,10 @@
         <v>1</v>
       </c>
       <c r="V5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X5">
         <v>1</v>
@@ -856,15 +870,18 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC5">
+        <v>2</v>
+      </c>
+      <c r="AD5">
         <v>2</v>
       </c>
     </row>
@@ -911,13 +928,13 @@
         <v>57.24110943321178</v>
       </c>
       <c r="N6">
-        <v>185.976</v>
+        <v>389.984</v>
       </c>
       <c r="O6">
-        <v>903.13</v>
+        <v>-96.87</v>
       </c>
       <c r="P6">
-        <v>404.4211632</v>
+        <v>301.0640404045075</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -935,10 +952,10 @@
         <v>1</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X6">
         <v>1</v>
@@ -947,7 +964,7 @@
         <v>2</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA6">
         <v>2</v>
@@ -957,6 +974,9 @@
       </c>
       <c r="AC6">
         <v>2</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1002,13 +1022,13 @@
         <v>66.68343630317996</v>
       </c>
       <c r="N7">
-        <v>153.524</v>
+        <v>381.248</v>
       </c>
       <c r="O7">
-        <v>1204.84</v>
+        <v>-145.16</v>
       </c>
       <c r="P7">
-        <v>377.9440344</v>
+        <v>267.8258914575916</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -1029,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X7">
         <v>1</v>
@@ -1038,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA7">
         <v>0</v>
@@ -1048,6 +1068,9 @@
       </c>
       <c r="AC7">
         <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1093,13 +1116,13 @@
         <v>61.5860078729079</v>
       </c>
       <c r="N8">
-        <v>157.5</v>
+        <v>385.7280000000001</v>
       </c>
       <c r="O8">
-        <v>996.8</v>
+        <v>-103.2</v>
       </c>
       <c r="P8">
-        <v>430.9878672</v>
+        <v>338.8683320712748</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -1123,7 +1146,7 @@
         <v>3</v>
       </c>
       <c r="X8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y8">
         <v>2</v>
@@ -1135,10 +1158,13 @@
         <v>2</v>
       </c>
       <c r="AB8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC8">
         <v>2</v>
+      </c>
+      <c r="AD8">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1184,13 +1210,13 @@
         <v>64.04517450799185</v>
       </c>
       <c r="N9">
-        <v>43.87599999999999</v>
+        <v>349.384</v>
       </c>
       <c r="O9">
-        <v>1071.68</v>
+        <v>-178.32</v>
       </c>
       <c r="P9">
-        <v>312.72426</v>
+        <v>208.783551340974</v>
       </c>
       <c r="Q9">
         <v>8</v>
@@ -1208,10 +1234,10 @@
         <v>6</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X9">
         <v>0</v>
@@ -1229,6 +1255,9 @@
         <v>0</v>
       </c>
       <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
         <v>0</v>
       </c>
     </row>
